--- a/ceftaz-avi.xlsx
+++ b/ceftaz-avi.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198204F0-3D0F-CD42-B969-2F1145158C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82157494-2F82-A04A-AC45-2E4C6CB46BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12520" yWindow="7220" windowWidth="27640" windowHeight="16940" xr2:uid="{B216AA04-8970-5148-BB64-D15592C759ED}"/>
+    <workbookView xWindow="12460" yWindow="4300" windowWidth="27640" windowHeight="16940" xr2:uid="{B216AA04-8970-5148-BB64-D15592C759ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -58,6 +58,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -82,12 +88,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +432,7 @@
   <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -442,39 +449,39 @@
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>9.1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="B3" s="2">
+        <v>39.9</v>
+      </c>
+      <c r="B3" s="3">
         <v>9.1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="B4" s="2">
+        <v>79.8</v>
+      </c>
+      <c r="B4" s="3">
         <v>13.4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="B5" s="2">
+        <v>159.6</v>
+      </c>
+      <c r="B5" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="B6" s="2">
+        <v>319.2</v>
+      </c>
+      <c r="B6" s="3">
         <v>24</v>
       </c>
     </row>
@@ -482,39 +489,39 @@
       <c r="A7" s="2">
         <v>0</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="B8" s="2">
+        <v>39.9</v>
+      </c>
+      <c r="B8" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="B9" s="2">
+        <v>79.8</v>
+      </c>
+      <c r="B9" s="3">
         <v>13.3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="B10" s="2">
+        <v>159.6</v>
+      </c>
+      <c r="B10" s="3">
         <v>16.600000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="B11" s="2">
+        <v>319.2</v>
+      </c>
+      <c r="B11" s="3">
         <v>24</v>
       </c>
     </row>
@@ -522,39 +529,39 @@
       <c r="A12" s="2">
         <v>0</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>9.1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="B13" s="2">
+        <v>39.9</v>
+      </c>
+      <c r="B13" s="3">
         <v>9.1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="B14" s="2">
+        <v>79.8</v>
+      </c>
+      <c r="B14" s="3">
         <v>13.25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="B15" s="2">
+        <v>159.6</v>
+      </c>
+      <c r="B15" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="B16" s="2">
+        <v>319.2</v>
+      </c>
+      <c r="B16" s="3">
         <v>24</v>
       </c>
     </row>
@@ -562,39 +569,39 @@
       <c r="A17" s="2">
         <v>0</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>9.17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="B18" s="2">
+        <v>39.9</v>
+      </c>
+      <c r="B18" s="3">
         <v>9.5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="B19" s="2">
+        <v>79.8</v>
+      </c>
+      <c r="B19" s="3">
         <v>13.5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="B20" s="2">
+        <v>159.6</v>
+      </c>
+      <c r="B20" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="B21" s="2">
+        <v>319.2</v>
+      </c>
+      <c r="B21" s="3">
         <v>24</v>
       </c>
     </row>
@@ -602,39 +609,39 @@
       <c r="A22" s="2">
         <v>0</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="B23" s="2">
+        <v>39.9</v>
+      </c>
+      <c r="B23" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="B24" s="2">
+        <v>79.8</v>
+      </c>
+      <c r="B24" s="3">
         <v>14.17</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="B25" s="2">
+        <v>159.6</v>
+      </c>
+      <c r="B25" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="B26" s="2">
+        <v>319.2</v>
+      </c>
+      <c r="B26" s="3">
         <v>24</v>
       </c>
     </row>
@@ -642,23 +649,23 @@
       <c r="A27" s="2">
         <v>0</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>9.4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>2.375</v>
-      </c>
-      <c r="B28" s="2">
+        <v>99.75</v>
+      </c>
+      <c r="B28" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>2.85</v>
-      </c>
-      <c r="B29" s="2">
+        <v>119.7</v>
+      </c>
+      <c r="B29" s="3">
         <v>24</v>
       </c>
     </row>
@@ -666,23 +673,23 @@
       <c r="A30" s="2">
         <v>0</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <v>9.4</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>2.375</v>
-      </c>
-      <c r="B31" s="2">
+        <v>99.75</v>
+      </c>
+      <c r="B31" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>2.85</v>
-      </c>
-      <c r="B32" s="2">
+        <v>119.7</v>
+      </c>
+      <c r="B32" s="3">
         <v>24</v>
       </c>
     </row>
@@ -690,23 +697,23 @@
       <c r="A33" s="2">
         <v>0</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>2.375</v>
-      </c>
-      <c r="B34" s="2">
+        <v>99.75</v>
+      </c>
+      <c r="B34" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>2.85</v>
-      </c>
-      <c r="B35" s="2">
+        <v>119.7</v>
+      </c>
+      <c r="B35" s="3">
         <v>22</v>
       </c>
     </row>
@@ -714,23 +721,23 @@
       <c r="A36" s="2">
         <v>0</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="3">
         <v>9.66</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="B37" s="2">
+        <v>79.8</v>
+      </c>
+      <c r="B37" s="3">
         <v>16.66</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>2.375</v>
-      </c>
-      <c r="B38" s="2">
+        <v>99.75</v>
+      </c>
+      <c r="B38" s="3">
         <v>24</v>
       </c>
     </row>
@@ -738,31 +745,31 @@
       <c r="A39" s="2">
         <v>0</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="3">
         <v>9.25</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="B40" s="2">
+        <v>79.8</v>
+      </c>
+      <c r="B40" s="3">
         <v>17.899999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="B41" s="2">
+        <v>79.8</v>
+      </c>
+      <c r="B41" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="B42" s="2">
+        <v>159.6</v>
+      </c>
+      <c r="B42" s="3">
         <v>24</v>
       </c>
     </row>
@@ -770,31 +777,31 @@
       <c r="A43" s="2">
         <v>0</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="3">
         <v>9.33</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="B44" s="2">
+        <v>39.9</v>
+      </c>
+      <c r="B44" s="3">
         <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="B45" s="2">
+        <v>79.8</v>
+      </c>
+      <c r="B45" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="B46" s="2">
+        <v>159.6</v>
+      </c>
+      <c r="B46" s="3">
         <v>24</v>
       </c>
     </row>
